--- a/data/predictions/gender/gay_marr/overall/democrat.xlsx
+++ b/data/predictions/gender/gay_marr/overall/democrat.xlsx
@@ -739,19 +739,19 @@
         <v>2019</v>
       </c>
       <c r="B34">
-        <v>-0.009847866438456629</v>
+        <v>0.04193476947370377</v>
       </c>
       <c r="D34">
         <v>0.05948630962648873</v>
       </c>
       <c r="G34">
-        <v>0.02008833406188635</v>
+        <v>-0.007686586523490552</v>
       </c>
       <c r="I34">
-        <v>0.2437304735605221</v>
+        <v>0.3440678669148781</v>
       </c>
       <c r="J34">
-        <v>0.6196072998598943</v>
+        <v>0.5596502853083262</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -759,19 +759,19 @@
         <v>2020</v>
       </c>
       <c r="B35">
-        <v>-0.0248638736806875</v>
+        <v>0.03848437665641117</v>
       </c>
       <c r="D35">
         <v>0.06249523210557074</v>
       </c>
       <c r="G35">
-        <v>-0.02570363501936181</v>
+        <v>-0.06399915213579196</v>
       </c>
       <c r="I35">
-        <v>0.2590262150410106</v>
+        <v>0.3242443554220582</v>
       </c>
       <c r="J35">
-        <v>0.6841213985363283</v>
+        <v>0.5908106490730693</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -779,19 +779,19 @@
         <v>2021</v>
       </c>
       <c r="B36">
-        <v>-0.06808632428842153</v>
+        <v>-0.01544350853037541</v>
       </c>
       <c r="D36">
         <v>0.04771749808013834</v>
       </c>
       <c r="G36">
-        <v>-0.06501661490812047</v>
+        <v>-0.1597209408009484</v>
       </c>
       <c r="I36">
-        <v>0.2743188116871324</v>
+        <v>0.4678488982974737</v>
       </c>
       <c r="J36">
-        <v>0.7541739807166427</v>
+        <v>0.6875676178424506</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -799,19 +799,19 @@
         <v>2022</v>
       </c>
       <c r="B37">
-        <v>-0.1573139961316729</v>
+        <v>-0.02554300397130918</v>
       </c>
       <c r="D37">
         <v>0.02781907502987617</v>
       </c>
       <c r="G37">
-        <v>-0.09406470880159244</v>
+        <v>-0.2565926836228244</v>
       </c>
       <c r="I37">
-        <v>0.2896145531218289</v>
+        <v>0.4713671520167105</v>
       </c>
       <c r="J37">
-        <v>0.8224785084733188</v>
+        <v>0.7745406589144493</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -819,19 +819,19 @@
         <v>2023</v>
       </c>
       <c r="B38">
-        <v>-0.1674408227302915</v>
+        <v>-0.06551570935329132</v>
       </c>
       <c r="D38">
         <v>0.02339556069001716</v>
       </c>
       <c r="G38">
-        <v>-0.1112129279976505</v>
+        <v>-0.3451099233282217</v>
       </c>
       <c r="I38">
-        <v>0.3049071498137421</v>
+        <v>0.5102194663032601</v>
       </c>
       <c r="J38">
-        <v>0.8913347566180507</v>
+        <v>0.7813955619142942</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -839,19 +839,19 @@
         <v>2024</v>
       </c>
       <c r="B39">
-        <v>-0.2283986736442374</v>
+        <v>-0.09335781951843715</v>
       </c>
       <c r="D39">
         <v>0.01861408581444908</v>
       </c>
       <c r="G39">
-        <v>-0.1223537714708253</v>
+        <v>-0.4114159301454341</v>
       </c>
       <c r="I39">
-        <v>0.3202028912026478</v>
+        <v>0.5279941123350083</v>
       </c>
       <c r="J39">
-        <v>0.9600168709472217</v>
+        <v>0.8092417103072632</v>
       </c>
     </row>
   </sheetData>
